--- a/BaswareAutomation/test/TestDataProvideGalitt.xlsx
+++ b/BaswareAutomation/test/TestDataProvideGalitt.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>OrderDesc</t>
   </si>
@@ -137,9 +137,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>0360</t>
-  </si>
-  <si>
     <t>SSP</t>
   </si>
   <si>
@@ -149,24 +146,6 @@
     <t>Galitt</t>
   </si>
   <si>
-    <t>Formation collaborateurs</t>
-  </si>
-  <si>
-    <t>Guarding and security Event</t>
-  </si>
-  <si>
-    <t>CS-FVAR</t>
-  </si>
-  <si>
-    <t>EMEAAD\acolibeau</t>
-  </si>
-  <si>
-    <t>EMEAAD\gdemoura</t>
-  </si>
-  <si>
-    <t>030560Z0009</t>
-  </si>
-  <si>
     <t>Marketing</t>
   </si>
   <si>
@@ -182,18 +161,12 @@
     <t>Meal tickets expenses</t>
   </si>
   <si>
-    <t>GalFor3600</t>
-  </si>
-  <si>
     <t>GalMkt3600</t>
   </si>
   <si>
     <t>CP-NFRA</t>
   </si>
   <si>
-    <t>Prd3</t>
-  </si>
-  <si>
     <t>Prd5</t>
   </si>
   <si>
@@ -203,16 +176,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>300</t>
   </si>
   <si>
     <t>TestCaseNo</t>
-  </si>
-  <si>
-    <t>137024</t>
   </si>
   <si>
     <t>137025</t>
@@ -331,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -342,7 +309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -625,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="A3" sqref="A3:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +626,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
@@ -675,10 +641,10 @@
         <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -705,7 +671,7 @@
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>9</v>
@@ -726,10 +692,10 @@
         <v>11</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>6</v>
@@ -742,14 +708,14 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>53</v>
+      <c r="A2" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>23</v>
@@ -758,165 +724,81 @@
         <v>21</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="U2" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA3" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022BC2 - Restricted</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>